--- a/medicine/Handicap/Alphabet_de_Lorm/Alphabet_de_Lorm.xlsx
+++ b/medicine/Handicap/Alphabet_de_Lorm/Alphabet_de_Lorm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L'alphabet de Lorm est une technique de communication avec les sourdaveugles inventée par Heinrich Landesmann (connu sous le pseudonyme de Hieronymus Lorm) (1821-1902)[1]. Les lettres sont positionnées sur la main, et on écrit sur la main de la personne handicapée en touchant ou effleurant les différents emplacements des lettres, pour former des mots. Par exemple le A est situé sur la pointe du pouce, le E sur la pointe de l'index et le I sur la pointe du majeur. Le B s'obtient en frottant l'index du haut vers la main, le S en effectuant un tour au creux de la paume de main.
-Cette technique permet aux plus habitués d'écrire jusqu'à 75 syllabes par minute[2], ce qui est moins que la langue des signes, mais présente l'avantage d'être accessible aux aveugles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L'alphabet de Lorm est une technique de communication avec les sourdaveugles inventée par Heinrich Landesmann (connu sous le pseudonyme de Hieronymus Lorm) (1821-1902). Les lettres sont positionnées sur la main, et on écrit sur la main de la personne handicapée en touchant ou effleurant les différents emplacements des lettres, pour former des mots. Par exemple le A est situé sur la pointe du pouce, le E sur la pointe de l'index et le I sur la pointe du majeur. Le B s'obtient en frottant l'index du haut vers la main, le S en effectuant un tour au creux de la paume de main.
+Cette technique permet aux plus habitués d'écrire jusqu'à 75 syllabes par minute, ce qui est moins que la langue des signes, mais présente l'avantage d'être accessible aux aveugles.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Inventeur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heinrich Landesmann était un journaliste et écrivain allemand, qui publiait sous le pseudonyme Hieronymus Lorm. Il a perdu l'ouïe à l'âge de 16 ans, et la vue à l'âge de 60 ans[3]. Il a inventé ce moyen de conversation avec sa fille.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heinrich Landesmann était un journaliste et écrivain allemand, qui publiait sous le pseudonyme Hieronymus Lorm. Il a perdu l'ouïe à l'âge de 16 ans, et la vue à l'âge de 60 ans. Il a inventé ce moyen de conversation avec sa fille.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Langues</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À cause de l'origine allemande de cet alphabet, on y trouve les digraphes Sch, Ch... Les umlauts s'obtiennent en doublant le toucher, par exemple tapoter une fois l'auriculaire pour un U, deux fois pour un Ü.
-Une version tchèque de l'alphabet de Lorm existe (avec le même nom)[4]. Il s'agit en fait du même, avec des simplifications : supprimer Ä, Ö, Ü, SCH, ST, et déplacer CH de la "croix dans la paume" vers "presser annulaire et auriculaire" (même concept que le F).
-La version anglaise présente un peu plus de différences[5]. Les points du V et du W sont déplacés, ainsi que l'axe du Z et la façon de faire les M et N est différente avec plusieurs points au lieu d'un seul. Enfin quelques abréviations sont ajoutées (-teen et Ja).
+Une version tchèque de l'alphabet de Lorm existe (avec le même nom). Il s'agit en fait du même, avec des simplifications : supprimer Ä, Ö, Ü, SCH, ST, et déplacer CH de la "croix dans la paume" vers "presser annulaire et auriculaire" (même concept que le F).
+La version anglaise présente un peu plus de différences. Les points du V et du W sont déplacés, ainsi que l'axe du Z et la façon de faire les M et N est différente avec plusieurs points au lieu d'un seul. Enfin quelques abréviations sont ajoutées (-teen et Ja).
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Détail de l'alphabet de Lorm original</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les gestes peuvent s'effectuer indifféremment sur les deux mains droite ou gauche. Sauf mention contraire, les frottis sont du bout du doigt vers la main.
 A : Point sur le bout du pouce
